--- a/post/必练题.xlsx
+++ b/post/必练题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="176">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,155 +553,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>每日温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个更大元素Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在重复元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长和谐子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长连续序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的字母异位词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长回文串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同构字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回文子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回文数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数二进制子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索二维矩阵Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序矩阵中第K小的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找重复数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组相邻差值的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组的度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断二分图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程表Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉明距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只出现一次的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只出现一次的数字Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颠倒二进制位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2的幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4的n次方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大单词长度乘积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特位计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRU缓存机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无重复字符的最长子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K个一组翻转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手撕快速排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的锯齿形层次遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长回文子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索旋转排序数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷题次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>有效的括号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每日温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一个更大元素Ⅱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在重复元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最长和谐子序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最长连续序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效的字母异位词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最长回文串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同构字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回文子串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回文数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数二进制子串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索二维矩阵Ⅱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有序矩阵中第K小的元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找重复数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组相邻差值的个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组的度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断二分图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程表Ⅱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉明距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只出现一次的数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺失数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只出现一次的数字Ⅲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颠倒二进制位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2的幂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4的n次方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大单词长度乘积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比特位计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRU缓存机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无重复字符的最长子串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K个一组翻转链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手撕快速排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树的锯齿形层次遍历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最长回文子串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索旋转排序数组</t>
+    <t>和为K的子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋矩阵Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度最小的子数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1066,7 +1082,7 @@
     <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,8 +1101,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>206</v>
       </c>
@@ -1100,12 +1119,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3">
         <v>287</v>
@@ -1114,12 +1133,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4">
         <v>286</v>
@@ -1128,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>215</v>
       </c>
@@ -1142,12 +1161,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6">
         <v>191</v>
@@ -1156,12 +1175,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>912</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7">
         <v>185</v>
@@ -1170,7 +1189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>53</v>
       </c>
@@ -1184,7 +1203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>21</v>
       </c>
@@ -1198,7 +1217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>141</v>
       </c>
@@ -1212,7 +1231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>121</v>
       </c>
@@ -1226,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>160</v>
       </c>
@@ -1240,7 +1259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>88</v>
       </c>
@@ -1254,12 +1273,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14">
         <v>137</v>
@@ -1268,12 +1287,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="C15">
         <v>133</v>
@@ -1282,7 +1301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>236</v>
       </c>
@@ -1315,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18">
         <v>117</v>
@@ -1343,7 +1362,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20">
         <v>114</v>
@@ -1721,7 +1740,7 @@
         <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47">
         <v>40</v>
@@ -1749,7 +1768,7 @@
         <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C49">
         <v>40</v>
@@ -1763,7 +1782,7 @@
         <v>240</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50">
         <v>39</v>
@@ -1833,7 +1852,7 @@
         <v>283</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C55">
         <v>32</v>
@@ -1931,7 +1950,7 @@
         <v>739</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62">
         <v>22</v>
@@ -1959,7 +1978,7 @@
         <v>667</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C64">
         <v>20</v>
@@ -2015,7 +2034,7 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68">
         <v>19</v>
@@ -2029,7 +2048,7 @@
         <v>287</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C69">
         <v>18</v>
@@ -2155,7 +2174,7 @@
         <v>207</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C78">
         <v>14</v>
@@ -2169,7 +2188,7 @@
         <v>268</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79">
         <v>14</v>
@@ -2183,7 +2202,7 @@
         <v>242</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80">
         <v>14</v>
@@ -2267,7 +2286,7 @@
         <v>565</v>
       </c>
       <c r="B86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C86">
         <v>10</v>
@@ -2309,7 +2328,7 @@
         <v>210</v>
       </c>
       <c r="B89" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C89">
         <v>10</v>
@@ -2323,7 +2342,7 @@
         <v>697</v>
       </c>
       <c r="B90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C90">
         <v>10</v>
@@ -2379,7 +2398,7 @@
         <v>378</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C94">
         <v>9</v>
@@ -2449,7 +2468,7 @@
         <v>647</v>
       </c>
       <c r="B99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C99">
         <v>8</v>
@@ -2477,7 +2496,7 @@
         <v>503</v>
       </c>
       <c r="B101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C101">
         <v>8</v>
@@ -2505,7 +2524,7 @@
         <v>260</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C103">
         <v>8</v>
@@ -2659,7 +2678,7 @@
         <v>342</v>
       </c>
       <c r="B114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C114">
         <v>7</v>
@@ -2687,7 +2706,7 @@
         <v>231</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C116">
         <v>7</v>
@@ -2785,7 +2804,7 @@
         <v>785</v>
       </c>
       <c r="B123" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C123">
         <v>4</v>
@@ -2883,7 +2902,7 @@
         <v>409</v>
       </c>
       <c r="B130" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C130">
         <v>3</v>
@@ -2911,7 +2930,7 @@
         <v>217</v>
       </c>
       <c r="B132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C132">
         <v>3</v>
@@ -2925,7 +2944,7 @@
         <v>205</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C133">
         <v>3</v>
@@ -2939,7 +2958,7 @@
         <v>190</v>
       </c>
       <c r="B134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -3177,7 +3196,7 @@
         <v>338</v>
       </c>
       <c r="B151" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -3191,7 +3210,7 @@
         <v>318</v>
       </c>
       <c r="B152" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -3261,7 +3280,7 @@
         <v>696</v>
       </c>
       <c r="B157" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -3303,7 +3322,7 @@
         <v>594</v>
       </c>
       <c r="B160" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -3331,7 +3350,7 @@
         <v>461</v>
       </c>
       <c r="B162" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -3366,6 +3385,48 @@
       </c>
       <c r="D164" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>560</v>
+      </c>
+      <c r="B165" t="s">
+        <v>173</v>
+      </c>
+      <c r="C165">
+        <v>21</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>59</v>
+      </c>
+      <c r="B166" t="s">
+        <v>174</v>
+      </c>
+      <c r="C166">
+        <v>27</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>209</v>
+      </c>
+      <c r="B167" t="s">
+        <v>175</v>
+      </c>
+      <c r="C167">
+        <v>30</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
